--- a/src/P02_data/T02_af/S11_af_meta.xlsx
+++ b/src/P02_data/T02_af/S11_af_meta.xlsx
@@ -4351,7 +4351,7 @@
         <v>1600</v>
       </c>
       <c r="V48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W48" t="n">
         <v>60</v>
@@ -4432,7 +4432,7 @@
         <v>1600</v>
       </c>
       <c r="V49" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W49" t="n">
         <v>60</v>
@@ -4513,10 +4513,10 @@
         <v>1600</v>
       </c>
       <c r="V50" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W50" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
@@ -4594,7 +4594,7 @@
         <v>1600</v>
       </c>
       <c r="V51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W51" t="n">
         <v>70</v>
@@ -4675,7 +4675,7 @@
         <v>1600</v>
       </c>
       <c r="V52" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W52" t="n">
         <v>70</v>
